--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -338,10 +338,10 @@
     <t>w_school_name</t>
   </si>
   <si>
-    <t>Select the school name</t>
-  </si>
-  <si>
-    <t>Sélectionner le nom de l'école</t>
+    <t>Enter the school name</t>
+  </si>
+  <si>
+    <t>Entrer le nom de l'école</t>
   </si>
   <si>
     <t>geopoint</t>
@@ -2130,10 +2130,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 1. SCH/STH – Ecole/Localité V4</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_1_school_202110_v4</t>
+    <t>(Octobre 2021) - 1. SCH/STH – Ecole/Localité V5</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_1_school_202110_v5</t>
   </si>
   <si>
     <t>French</t>
@@ -2144,10 +2144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2205,19 +2205,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2229,8 +2236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,30 +2267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2281,17 +2281,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,10 +2319,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2319,25 +2333,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2374,7 +2374,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,13 +2458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,25 +2470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,79 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,43 +2554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,6 +2616,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2627,21 +2647,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2661,164 +2666,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3289,12 +3289,12 @@
   <sheetPr/>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13856,8 +13856,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -630,18 +630,12 @@
     <t>AGOSSOU A. Adolphe  </t>
   </si>
   <si>
-    <t>AKPANLI Komivi  </t>
-  </si>
-  <si>
     <t>AMADOU Moussa </t>
   </si>
   <si>
     <t>ANAGO Espoir  </t>
   </si>
   <si>
-    <t>BADAKI Abalo Charles </t>
-  </si>
-  <si>
     <t>FONVI Akakpo </t>
   </si>
   <si>
@@ -651,6 +645,9 @@
     <t>GNAMEY Judith </t>
   </si>
   <si>
+    <t>HOUNYOVI Ayaovi</t>
+  </si>
+  <si>
     <t>KAMASSA Hélène </t>
   </si>
   <si>
@@ -669,7 +666,10 @@
     <t>NAKOME Bamouni  </t>
   </si>
   <si>
-    <t>PABAKA Kokou  </t>
+    <t>NOUSSOUGNON Kokou</t>
+  </si>
+  <si>
+    <t>SOH Atafembou</t>
   </si>
   <si>
     <t>SOSSOU Efoe Stephane </t>
@@ -2145,8 +2145,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
@@ -2199,16 +2199,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2220,55 +2228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,7 +2244,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2298,7 +2267,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2306,13 +2305,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,18 +2318,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2374,7 +2374,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,13 +2446,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,73 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,79 +2554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,6 +2598,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2612,6 +2627,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2637,36 +2667,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2683,145 +2683,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3916,10 +3916,10 @@
   <sheetPr/>
   <dimension ref="A1:H786"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -13845,6 +13845,9 @@
       <c r="H786" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D24">
+    <sortCondition ref="B2:B24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -13856,7 +13859,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2130,10 +2130,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 1. SCH/STH – Ecole/Localité V5</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_1_school_202110_v5</t>
+    <t>(Octobre 2021) - 1. SCH/STH – Ecole/Localité V6</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_1_school_202110_v6</t>
   </si>
   <si>
     <t>French</t>
@@ -2144,8 +2144,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -2199,9 +2199,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2213,21 +2213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2236,24 +2221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2265,8 +2237,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2280,6 +2304,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2288,23 +2326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2313,29 +2336,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2374,19 +2374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,7 +2392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,7 +2422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,25 +2464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,7 +2494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,55 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,24 +2555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2625,6 +2625,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2657,15 +2666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2683,145 +2683,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3916,7 +3916,7 @@
   <sheetPr/>
   <dimension ref="A1:H786"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:D24"/>
@@ -13859,8 +13859,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_1_school_202110.xlsx
@@ -2132,10 +2132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2178,23 +2178,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2207,46 +2201,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2262,7 +2241,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2277,7 +2300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,21 +2315,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2314,15 +2322,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2362,13 +2362,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,91 +2458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,49 +2506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,13 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,6 +2586,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2597,6 +2615,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2616,21 +2649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2645,174 +2663,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3877,10 +3877,10 @@
   <sheetPr/>
   <dimension ref="A1:H786"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D24"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -13821,7 +13821,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
